--- a/data/minfin/32_q.xlsx
+++ b/data/minfin/32_q.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="511">
   <si>
     <t>id</t>
   </si>
@@ -108,9 +113,6 @@
     <t>Кривая спроса показывает вероятное количество товара, который удаётся продать за определенное время и по определённой цене. Кривая предложения показывает соотношение между рыночными ценами и количеством товаров, которые производители желают предложить.</t>
   </si>
   <si>
-    <t>Что такое монополия/олигополия</t>
-  </si>
-  <si>
     <t>Что такое Министерство финансов России?</t>
   </si>
   <si>
@@ -180,18 +182,9 @@
     <t>Секвестр бюджета — это пропорциональное снижение всех расходных статей бюджета на определённую долю. Его применяют для сокращения дефицита бюджета, который возникает, когда расходы превышают доходы. Как правило, в рамках секвестирования правительство определяет статьи, расходы на которые сокращать нельзя. Обычно это важные социальные выплаты и оплата внешнего долга.</t>
   </si>
   <si>
-    <t>Что такое Акции/Облигации?</t>
-  </si>
-  <si>
-    <t>Микро/Макроэкономические показатели?</t>
-  </si>
-  <si>
     <t>Макроэкономический прогноз?</t>
   </si>
   <si>
-    <t>Что такое дефляция/инфляция?</t>
-  </si>
-  <si>
     <t>Внешний долг РФ в $? Внутренний?</t>
   </si>
   <si>
@@ -243,9 +236,6 @@
     <t>Что относят к основному капиталу?</t>
   </si>
   <si>
-    <t>ИНФЛЯЦИОННАЯ СПИРАЛЬ это процесс взаимозависимого роста цен и заработной платы, при котором рост цен обусловливает необходимость повышения заработной платы, а ее повышение приводит к росту цен</t>
-  </si>
-  <si>
     <t>Международная экономическая интеграция — это процесс международного объединения экономики стран и государств в один, общий рынок, при котором постепенная отмена тарифных и нетарифных ограничений приводит к унификации экономической политики в отраслях экономики и имеет ряд выраженных последствий</t>
   </si>
   <si>
@@ -271,9 +261,6 @@
   </si>
   <si>
     <t>Антиинфляционная политика — это комплекс мер по государственному регулированию экономики, направленный на подавление инфляции</t>
-  </si>
-  <si>
-    <t>АНТИИНФЛЯЦИОННАЯ ПОЛИТИКА — выбор государством курса и проведение совокупности мер, направленных на урегулирование денежного обращения, сжатие массы денег, прекращение неумеренного роста цен. Зачастую сочетается с общестабилизационными мерами на макроэкономическом уровне. Антиинфляционная политика может быть как упреждающей раскручивание маховика инфляции, так и проводиться на фоне уже прогрессирующей инфляционной ситуации. В этом случае осуществляется разновидность антиинфляционная политика — дефляционная политика. В странах с развитой рыночной экономикой основным объектом антиинфляционной политики является инфляция издержек (спираль: цены — доходы — цены). Поэтому антиинфляционная политика проводится главным образом путем замораживания или ограничения роста доходов и цен, притормаживания излишней деловой активности посредством удорожания кредита и лишь во вторую очередь предусматривает урегулирование госбюджета, сокращение государственных расходов</t>
   </si>
   <si>
     <t>Что такое балансирование госбюджета</t>
@@ -1245,9 +1232,6 @@
     <t>Раздел «Государственный внутренний долг Российской Федерации» на официальном сайте Министерства финансов Российской Федерации; Раздел «Государственный внешний долг Российской Федерации» на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
-    <t>https://www.minfin.ru/ru/perfomance/public_debt/internal/;  https://www.minfin.ru/ru/perfomance/public_debt/external/structure/#</t>
-  </si>
-  <si>
     <t>Казна (от тюрк. - хранилище денег):
 • финансовые ресурсы государства, централизованные государственные источники финансов, включая средства федерального бюджета, бюджетов субъектов Федерации, государственное имущество, не закрепленное за государственными предприятиями и учреждениями; 
 • хранилище денег и драгоценностей правителей, королей, царей, монастырей в историческом прошлом.
@@ -1608,12 +1592,57 @@
   <si>
     <t>32.106</t>
   </si>
+  <si>
+    <t>Что такое монополия / олигополия</t>
+  </si>
+  <si>
+    <t>Что такое Акции / Облигации?</t>
+  </si>
+  <si>
+    <t>Микро / Макроэкономические показатели?</t>
+  </si>
+  <si>
+    <t>Что такое дефляция / инфляция?</t>
+  </si>
+  <si>
+    <t>link_name</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>picture_caption</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>document_caption</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>parameterized</t>
+  </si>
+  <si>
+    <t>Инфляционная спираль – это процесс взаимозависимого роста цен и заработной платы, при котором рост цен обусловливает необходимость повышения заработной платы, а ее повышение приводит к росту цен</t>
+  </si>
+  <si>
+    <t>Антиинфляционная политика — выбор государством курса и проведение совокупности мер, направленных на урегулирование денежного обращения, сжатие массы денег, прекращение неумеренного роста цен. Зачастую сочетается с общестабилизационными мерами на макроэкономическом уровне. Антиинфляционная политика может быть как упреждающей раскручивание маховика инфляции, так и проводиться на фоне уже прогрессирующей инфляционной ситуации. В этом случае осуществляется разновидность антиинфляционная политика — дефляционная политика. В странах с развитой рыночной экономикой основным объектом антиинфляционной политики является инфляция издержек (спираль: цены — доходы — цены). Поэтому антиинфляционная политика проводится главным образом путем замораживания или ограничения роста доходов и цен, притормаживания излишней деловой активности посредством удорожания кредита и лишь во вторую очередь предусматривает урегулирование госбюджета, сокращение государственных расходов</t>
+  </si>
+  <si>
+    <t>что, такое, акционерный капитал, определение</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/perfomance/public_debt/internal/;  https://www.minfin.ru/ru/perfomance/public_debt/external/structure/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1643,6 +1672,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1664,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1695,6 +1732,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,6 +1810,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1816,7 +1864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1848,9 +1896,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1882,6 +1948,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2057,19 +2141,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157" style="1" customWidth="1"/>
+    <col min="4" max="4" width="172" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="4" customWidth="1"/>
     <col min="7" max="8" width="28.140625" style="4" customWidth="1"/>
@@ -2080,7 +2164,7 @@
     <col min="1026" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2096,26 +2180,40 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="141.75">
+      <c r="F1" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -2128,418 +2226,420 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="141.75">
+    <row r="3" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="157.5">
+    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="63">
+    <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="126">
+        <v>349</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>508</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="47.25">
+    <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="141.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="157.5">
+    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="94.5">
+    <row r="11" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="47.25">
+    <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="47.25">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="126">
+    <row r="14" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="47.25">
+    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="63">
+    <row r="17" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="94.5">
+    <row r="18" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="47.25">
+    <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="63">
+    <row r="20" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="47.25">
+    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="63">
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="96" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    <row r="25" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="110.25">
-      <c r="A24" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B24" s="8" t="s">
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="141.75">
-      <c r="A25" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="47.25">
-      <c r="A26" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="63">
+    </row>
+    <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>25</v>
@@ -2548,32 +2648,32 @@
         <v>26</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="249" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="78.75">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>28</v>
@@ -2582,1339 +2682,1339 @@
         <v>28</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="47.25">
-      <c r="A30" s="5" t="s">
+    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="189">
-      <c r="A31" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="E50" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="63">
-      <c r="A32" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="63">
-      <c r="A33" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="157.5">
-      <c r="A34" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E52" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="63">
-      <c r="A35" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="63">
-      <c r="A36" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="47.25">
-      <c r="A37" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="47.25">
-      <c r="A38" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="47.25">
-      <c r="A39" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="94.5">
-      <c r="A40" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="47.25">
-      <c r="A41" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="63">
-      <c r="A42" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="47.25">
-      <c r="A43" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="63">
-      <c r="A44" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="47.25">
-      <c r="A45" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="47.25">
-      <c r="A46" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="63">
-      <c r="A47" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="78.75">
-      <c r="A48" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="E71" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="94.5">
-      <c r="A49" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="E72" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="110.25">
-      <c r="A50" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="63">
-      <c r="A51" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="63">
-      <c r="A52" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="E73" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E75" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="47.25">
-      <c r="A53" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="47.25">
-      <c r="A54" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="63">
-      <c r="A55" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="78.75">
-      <c r="A56" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="63">
-      <c r="A57" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="63">
-      <c r="A58" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="63">
-      <c r="A59" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="47.25">
-      <c r="A60" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="63">
-      <c r="A61" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="E76" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="78.75">
-      <c r="A62" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="63">
-      <c r="A63" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="47.25">
-      <c r="A64" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="47.25">
-      <c r="A65" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="47.25">
-      <c r="A66" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="63">
-      <c r="A67" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="47.25">
-      <c r="A68" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45">
-      <c r="A69" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60">
-      <c r="A70" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="45">
-      <c r="A71" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="135">
-      <c r="A72" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="120">
-      <c r="A73" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="60">
-      <c r="A74" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="60">
-      <c r="A75" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="90">
-      <c r="A76" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="75">
-      <c r="A77" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="60">
-      <c r="A78" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="45">
-      <c r="A79" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="75">
-      <c r="A80" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="45">
-      <c r="A81" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="45">
-      <c r="A82" s="5" t="s">
+      <c r="G88" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60">
-      <c r="A83" s="5" t="s">
+      <c r="B89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="105">
-      <c r="A84" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="60">
-      <c r="A85" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="45">
-      <c r="A86" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="45">
-      <c r="A87" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="90">
-      <c r="A88" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="90">
-      <c r="A89" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="60">
-      <c r="A90" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="75">
-      <c r="A91" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45">
-      <c r="A92" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="45">
-      <c r="A93" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="60">
-      <c r="A94" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="45">
-      <c r="A95" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="45">
-      <c r="A96" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="60">
-      <c r="A97" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="45">
-      <c r="A98" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="150">
-      <c r="A99" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="33" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="60">
-      <c r="A101" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45">
-      <c r="A102" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30">
-      <c r="A103" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="90">
-      <c r="A104" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="75">
-      <c r="A105" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="120">
-      <c r="A106" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="180">
-      <c r="A107" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/32_q.xlsx
+++ b/data/minfin/32_q.xlsx
@@ -59,15 +59,6 @@
     <t>зона свободной торговли, определение, что, такое</t>
   </si>
   <si>
-    <t>антиинфляционная, политика, антиинфляционная политика, определение, что, такое</t>
-  </si>
-  <si>
-    <t>что, такое, валютная, интервенция, валютная интервенция</t>
-  </si>
-  <si>
-    <t>что, такое, бюджетный, кодекс, бюджетный кодекс, определение</t>
-  </si>
-  <si>
     <t>что, такое, глобализация, определение</t>
   </si>
   <si>
@@ -77,18 +68,9 @@
     <t>что, такое, гистерзис, определение</t>
   </si>
   <si>
-    <t>что, такое, государственный кредит, государственный, кредит, определение</t>
-  </si>
-  <si>
     <t>что, такое, девальвация, определение</t>
   </si>
   <si>
-    <t>что, такое, девиация, экономическая девиация, определение</t>
-  </si>
-  <si>
-    <t>что, такое, денежно-кредитная политика, денежно-кредитная, политика, определение</t>
-  </si>
-  <si>
     <t>что, такое, деноминация, определение</t>
   </si>
   <si>
@@ -267,9 +249,6 @@
   </si>
   <si>
     <t>Баланс государственного бюджета это соотношение денежных доходов и расходов государства</t>
-  </si>
-  <si>
-    <t>балансирование госбюджета, балансирование, баланс, госбюджета, государственного бюджета, что, такое, определение</t>
   </si>
   <si>
     <t xml:space="preserve">Что такое валютная интервенция </t>
@@ -1636,6 +1615,27 @@
   </si>
   <si>
     <t>https://www.minfin.ru/ru/perfomance/public_debt/internal/;  https://www.minfin.ru/ru/perfomance/public_debt/external/structure/</t>
+  </si>
+  <si>
+    <t>антиинфляционная, политика, антиинфляционная, определение, что, такое</t>
+  </si>
+  <si>
+    <t>балансирование, баланс, госбюджета, государственного бюджета, что, такое, определение</t>
+  </si>
+  <si>
+    <t>что, такое, валютная, интервенция</t>
+  </si>
+  <si>
+    <t>что, такое, бюджетный, кодекс, определение</t>
+  </si>
+  <si>
+    <t>что, такое, государственный кредит, определение</t>
+  </si>
+  <si>
+    <t>что, такое, экономическая девиация, определение</t>
+  </si>
+  <si>
+    <t>что, такое, денежно-кредитная политика, определение</t>
   </si>
 </sst>
 </file>
@@ -2144,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,39 +2181,39 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -2226,18 +2226,18 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -2245,33 +2245,33 @@
     </row>
     <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -2279,1742 +2279,1742 @@
     </row>
     <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E30" s="7" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D34" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
